--- a/flows/AMJ_fund_flow_data.xlsx
+++ b/flows/AMJ_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3751"/>
+  <dimension ref="A1:B3767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37945,6 +37945,166 @@
         <v>3.1561952</v>
       </c>
     </row>
+    <row r="3752">
+      <c r="A3752" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3752" t="n">
+        <v>5.6283226</v>
+      </c>
+    </row>
+    <row r="3753">
+      <c r="A3753" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3753" t="n">
+        <v>-3.2136848</v>
+      </c>
+    </row>
+    <row r="3754">
+      <c r="A3754" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3754" t="n">
+        <v>-1.2365184</v>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3755" t="n">
+        <v>5.3088865</v>
+      </c>
+    </row>
+    <row r="3756">
+      <c r="A3756" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3756" t="n">
+        <v>0.6329028</v>
+      </c>
+    </row>
+    <row r="3757">
+      <c r="A3757" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3757" t="n">
+        <v>8.683844000000001</v>
+      </c>
+    </row>
+    <row r="3758">
+      <c r="A3758" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3758" t="n">
+        <v>-8.8179</v>
+      </c>
+    </row>
+    <row r="3759">
+      <c r="A3759" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3759" t="n">
+        <v>-3.8251545</v>
+      </c>
+    </row>
+    <row r="3760">
+      <c r="A3760" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3760" t="n">
+        <v>4.930899</v>
+      </c>
+    </row>
+    <row r="3761">
+      <c r="A3761" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3761" t="n">
+        <v>-4.3824205</v>
+      </c>
+    </row>
+    <row r="3762">
+      <c r="A3762" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3762" t="n">
+        <v>4.5275507</v>
+      </c>
+    </row>
+    <row r="3763">
+      <c r="A3763" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3763" t="n">
+        <v>-1.2138</v>
+      </c>
+    </row>
+    <row r="3764">
+      <c r="A3764" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3764" t="n">
+        <v>2.2884018</v>
+      </c>
+    </row>
+    <row r="3765">
+      <c r="A3765" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3765" t="n">
+        <v>-4.470687</v>
+      </c>
+    </row>
+    <row r="3766">
+      <c r="A3766" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3766" t="n">
+        <v>3.4857302</v>
+      </c>
+    </row>
+    <row r="3767">
+      <c r="A3767" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3767" t="n">
+        <v>-2.5421677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
